--- a/artfynd/A 19071-2023.xlsx
+++ b/artfynd/A 19071-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>62689594</v>
+        <v>62689582</v>
       </c>
       <c r="B2" t="n">
-        <v>90319</v>
+        <v>93054</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4769</v>
+        <v>2810</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Västlig hakmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Rhytidiadelphus loreus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Hedw.) Warnst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>496603.0244192505</v>
+        <v>496491.2429489095</v>
       </c>
       <c r="R2" t="n">
-        <v>6593644.236533851</v>
+        <v>6593829.754447529</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -779,12 +779,12 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Lövrik barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>Fuktig mark</t>
+          <t>Marken</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -806,10 +806,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>62689582</v>
+        <v>62689554</v>
       </c>
       <c r="B3" t="n">
-        <v>93054</v>
+        <v>93044</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -822,21 +822,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Västlig hakmossa</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus loreus</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hedw.) Warnst.</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>496491.2429489095</v>
+        <v>496589.8900309857</v>
       </c>
       <c r="R3" t="n">
-        <v>6593829.754447529</v>
+        <v>6593750.926901286</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -905,7 +905,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Lövrik barrskog</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -932,10 +932,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>62689554</v>
+        <v>62689594</v>
       </c>
       <c r="B4" t="n">
-        <v>93044</v>
+        <v>90319</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -948,21 +948,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2809</v>
+        <v>4769</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>496589.8900309857</v>
+        <v>496603.0244192505</v>
       </c>
       <c r="R4" t="n">
-        <v>6593750.926901286</v>
+        <v>6593644.236533851</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Marken</t>
+          <t>Fuktig mark</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>

--- a/artfynd/A 19071-2023.xlsx
+++ b/artfynd/A 19071-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>62689582</v>
+        <v>62689594</v>
       </c>
       <c r="B2" t="n">
-        <v>93054</v>
+        <v>90319</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2810</v>
+        <v>4769</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Västlig hakmossa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus loreus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hedw.) Warnst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>496491.2429489095</v>
+        <v>496603.0244192505</v>
       </c>
       <c r="R2" t="n">
-        <v>6593829.754447529</v>
+        <v>6593644.236533851</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -779,12 +779,12 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Lövrik barrskog</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>Marken</t>
+          <t>Fuktig mark</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -806,10 +806,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>62689554</v>
+        <v>62689582</v>
       </c>
       <c r="B3" t="n">
-        <v>93044</v>
+        <v>93054</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -822,21 +822,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2809</v>
+        <v>2810</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Västlig hakmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Rhytidiadelphus loreus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(Hedw.) Warnst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>496589.8900309857</v>
+        <v>496491.2429489095</v>
       </c>
       <c r="R3" t="n">
-        <v>6593750.926901286</v>
+        <v>6593829.754447529</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -905,7 +905,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Lövrik barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -932,10 +932,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>62689594</v>
+        <v>62689554</v>
       </c>
       <c r="B4" t="n">
-        <v>90319</v>
+        <v>93044</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -948,21 +948,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4769</v>
+        <v>2809</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>496603.0244192505</v>
+        <v>496589.8900309857</v>
       </c>
       <c r="R4" t="n">
-        <v>6593644.236533851</v>
+        <v>6593750.926901286</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Fuktig mark</t>
+          <t>Marken</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
